--- a/data/output/FV2304_FV2210/UTILMD/11192.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11192.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="330">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="330">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1105,6 +1105,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U217" totalsRowShown="0">
+  <autoFilter ref="A1:U217"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,7 +1424,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11208,5 +11241,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11192.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11192.xlsx
@@ -2158,7 +2158,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4340,7 +4340,7 @@
         <v>309</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4494,7 +4494,7 @@
         <v>310</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4696,7 +4696,7 @@
         <v>311</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5260,7 +5260,7 @@
         <v>309</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5548,7 +5548,7 @@
         <v>313</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6172,7 +6172,7 @@
         <v>315</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6472,7 +6472,7 @@
         <v>317</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6804,7 +6804,7 @@
         <v>318</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7176,7 +7176,7 @@
         <v>309</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7854,7 +7854,7 @@
         <v>319</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8496,7 +8496,7 @@
         <v>321</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8594,7 +8594,7 @@
         <v>322</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9220,7 +9220,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9600,7 +9600,7 @@
         <v>324</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9888,7 +9888,7 @@
         <v>325</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10840,7 +10840,7 @@
         <v>327</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -11846,7 +11846,7 @@
         <v>329</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N215" s="2"/>
